--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1645255.499432066</v>
+        <v>1642570.091198622</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.31870353900247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>212.5689651179051</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>170.5667712892524</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>86.40950251964227</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.483774459743849</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.4773344784374</v>
+        <v>373.8928171112127</v>
       </c>
       <c r="G5" t="n">
-        <v>114.8666356663478</v>
+        <v>12.41971906875771</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.32832091644347</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3232867394217</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.314677974360616</v>
+        <v>105.8310833775558</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8009663029626</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33765040199577</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.28687735603344</v>
+        <v>36.28687735603341</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.384369338296295</v>
+        <v>4.384369338296253</v>
       </c>
       <c r="S6" t="n">
         <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9471662361903</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.839898471748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>118.8704204783669</v>
       </c>
       <c r="E7" t="n">
-        <v>66.79500372188862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7292459486107</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.559737650565</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.928326488848228</v>
+        <v>1.928326488848185</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1453906001063</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4792511931328</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4200010002144</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>168.0080471305706</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22.03654722859546</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.98102224012321</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.5703105865798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>95.96414228082838</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>19.5300720134496</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111876</v>
+        <v>96.1563689811188</v>
       </c>
       <c r="T11" t="n">
         <v>201.4146274292354</v>
@@ -1427,7 +1427,7 @@
         <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>86.64179915749273</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489835</v>
+        <v>8.282546271489863</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487705</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
         <v>225.7670384496465</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>178.724971440863</v>
       </c>
       <c r="C13" t="n">
-        <v>124.47707019175</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.63818461247365</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978462422561</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001829</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503553</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.97112450618975</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>45.83840473129957</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>332.442315526189</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446352817</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>111.3598553131476</v>
+        <v>101.9637133032927</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081966</v>
+        <v>34.32106446352842</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2138,7 +2138,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>277.4607323328426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>74.91025708412484</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>117.9650415418427</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>23.05950344416497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797033</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>93.40444476188296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>33.82891891787613</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>211.8986685707642</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>275.3300239197266</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.75188085811918</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>108.2950343703216</v>
+        <v>13.72582864853978</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>193.5578088304746</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>82.30974811734303</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716393</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>87.21471514852929</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.047988003768</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.047988003768</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.047988003768</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.047988003768</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>159.1024872545645</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>840.1393936243022</v>
+        <v>432.425644570946</v>
       </c>
       <c r="V2" t="n">
-        <v>573.7617370571243</v>
+        <v>166.047988003768</v>
       </c>
       <c r="W2" t="n">
-        <v>307.3840804899464</v>
+        <v>166.047988003768</v>
       </c>
       <c r="X2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.047988003768</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.047988003768</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.2689750668272</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>926.0983743305515</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>926.0983743305515</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413019</v>
+        <v>926.0983743305515</v>
       </c>
       <c r="V3" t="n">
-        <v>709.4101432413019</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W3" t="n">
-        <v>537.1204752723601</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>329.2689750668272</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>329.2689750668272</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.1328744987773</v>
+        <v>270.4938272096716</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1328744987773</v>
+        <v>270.4938272096716</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1328744987773</v>
+        <v>270.4938272096716</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1328744987773</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1045.275949844667</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1045.275949844667</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>819.8069136026814</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>819.8069136026814</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="V4" t="n">
-        <v>565.1224253967946</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="W4" t="n">
-        <v>565.1224253967946</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="X4" t="n">
-        <v>337.1328744987773</v>
+        <v>491.2864063532018</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.1328744987773</v>
+        <v>270.4938272096716</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="C5" t="n">
-        <v>1020.175824266851</v>
+        <v>1164.946820973341</v>
       </c>
       <c r="D5" t="n">
-        <v>1020.175824266851</v>
+        <v>806.6811223665904</v>
       </c>
       <c r="E5" t="n">
-        <v>634.3875716686071</v>
+        <v>420.8928697683462</v>
       </c>
       <c r="F5" t="n">
-        <v>247.0367287610945</v>
+        <v>43.22335753479799</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0098240476119</v>
+        <v>30.67818675827505</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0098240476119</v>
+        <v>30.67818675827505</v>
       </c>
       <c r="I5" t="n">
-        <v>30.67818675827499</v>
+        <v>30.67818675827505</v>
       </c>
       <c r="J5" t="n">
-        <v>93.68840227144227</v>
+        <v>93.68840227144301</v>
       </c>
       <c r="K5" t="n">
-        <v>238.8628998582994</v>
+        <v>238.8628998583004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.8664631799371</v>
+        <v>455.8664631799384</v>
       </c>
       <c r="M5" t="n">
-        <v>728.9941769296677</v>
+        <v>728.9941769296692</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.155191012935</v>
+        <v>1011.155191012937</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.256574219954</v>
+        <v>1264.256574219957</v>
       </c>
       <c r="P5" t="n">
-        <v>1445.771748220736</v>
+        <v>1445.771748220739</v>
       </c>
       <c r="Q5" t="n">
-        <v>1533.90933791375</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="R5" t="n">
-        <v>1533.90933791375</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1389.138341207263</v>
+        <v>1533.909337913753</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302.8251504562465</v>
+        <v>373.1036112075864</v>
       </c>
       <c r="C6" t="n">
-        <v>302.8251504562465</v>
+        <v>373.1036112075864</v>
       </c>
       <c r="D6" t="n">
-        <v>302.8251504562465</v>
+        <v>373.1036112075864</v>
       </c>
       <c r="E6" t="n">
-        <v>302.8251504562465</v>
+        <v>213.8661562021309</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8251504562465</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6524572209308</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33159822901585</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67818675827499</v>
+        <v>30.67818675827505</v>
       </c>
       <c r="J6" t="n">
-        <v>49.38879249773429</v>
+        <v>70.5041477934263</v>
       </c>
       <c r="K6" t="n">
-        <v>388.6148927670107</v>
+        <v>180.638377908522</v>
       </c>
       <c r="L6" t="n">
-        <v>583.0264977200791</v>
+        <v>375.0499828615905</v>
       </c>
       <c r="M6" t="n">
-        <v>829.2525390695757</v>
+        <v>621.2760242110874</v>
       </c>
       <c r="N6" t="n">
-        <v>1096.404095980888</v>
+        <v>888.4275811224003</v>
       </c>
       <c r="O6" t="n">
-        <v>1318.575783062976</v>
+        <v>1110.599268204488</v>
       </c>
       <c r="P6" t="n">
-        <v>1477.555082704999</v>
+        <v>1269.578567846511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1533.90933791375</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.480682016481</v>
+        <v>1529.480682016484</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.004959357768</v>
+        <v>1385.004959357771</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.098730836364</v>
+        <v>1385.004959357771</v>
       </c>
       <c r="U6" t="n">
-        <v>960.9776212689413</v>
+        <v>1385.004959357771</v>
       </c>
       <c r="V6" t="n">
-        <v>725.8255130371986</v>
+        <v>1149.852851126028</v>
       </c>
       <c r="W6" t="n">
-        <v>725.8255130371986</v>
+        <v>895.6154943978265</v>
       </c>
       <c r="X6" t="n">
-        <v>517.9740128316657</v>
+        <v>687.7639941922937</v>
       </c>
       <c r="Y6" t="n">
-        <v>310.2137140667118</v>
+        <v>480.0036954273398</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.3560840993987</v>
+        <v>468.9917889286315</v>
       </c>
       <c r="C7" t="n">
-        <v>685.3560840993987</v>
+        <v>468.9917889286315</v>
       </c>
       <c r="D7" t="n">
-        <v>685.3560840993987</v>
+        <v>348.9206571323013</v>
       </c>
       <c r="E7" t="n">
-        <v>617.8863833702183</v>
+        <v>201.0075635499082</v>
       </c>
       <c r="F7" t="n">
-        <v>470.9964358723079</v>
+        <v>201.0075635499082</v>
       </c>
       <c r="G7" t="n">
-        <v>302.6148636148648</v>
+        <v>32.62599129246514</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3631000304096</v>
+        <v>32.62599129246514</v>
       </c>
       <c r="I7" t="n">
-        <v>32.62599129246512</v>
+        <v>32.62599129246514</v>
       </c>
       <c r="J7" t="n">
-        <v>30.67818675827499</v>
+        <v>30.67818675827505</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3778790199915</v>
+        <v>157.3778790199916</v>
       </c>
       <c r="L7" t="n">
-        <v>375.0362985406463</v>
+        <v>375.0362985406465</v>
       </c>
       <c r="M7" t="n">
-        <v>614.9157070573551</v>
+        <v>614.9157070573553</v>
       </c>
       <c r="N7" t="n">
-        <v>854.5259358182306</v>
+        <v>854.5259358182309</v>
       </c>
       <c r="O7" t="n">
         <v>1059.828468603749</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.979570281385</v>
+        <v>1211.979570281386</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.537146920962</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="S7" t="n">
-        <v>910.022751776383</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="T7" t="n">
-        <v>685.3560840993987</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="U7" t="n">
-        <v>685.3560840993987</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="V7" t="n">
-        <v>685.3560840993987</v>
+        <v>979.2015381091222</v>
       </c>
       <c r="W7" t="n">
-        <v>685.3560840993987</v>
+        <v>689.7843680721617</v>
       </c>
       <c r="X7" t="n">
-        <v>685.3560840993987</v>
+        <v>689.7843680721617</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.3560840993987</v>
+        <v>468.9917889286315</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1644.250531453059</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="C8" t="n">
-        <v>1644.250531453059</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.984832846309</v>
+        <v>631.9377894692982</v>
       </c>
       <c r="E8" t="n">
-        <v>900.1965802480647</v>
+        <v>631.9377894692982</v>
       </c>
       <c r="F8" t="n">
-        <v>489.2106754584572</v>
+        <v>220.9518846796906</v>
       </c>
       <c r="G8" t="n">
-        <v>73.50592518274601</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>73.50592518274601</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.250531453059</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429764</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744481</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
         <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4996,16 +4996,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1972.084516111051</v>
+        <v>1634.795839800912</v>
       </c>
       <c r="C11" t="n">
-        <v>1603.12199917064</v>
+        <v>1265.8333228605</v>
       </c>
       <c r="D11" t="n">
-        <v>1603.12199917064</v>
+        <v>1168.899845809159</v>
       </c>
       <c r="E11" t="n">
-        <v>1217.333746572395</v>
+        <v>783.1115932109145</v>
       </c>
       <c r="F11" t="n">
-        <v>806.3478417827878</v>
+        <v>372.125688421307</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8530338894379</v>
+        <v>372.125688421307</v>
       </c>
       <c r="H11" t="n">
-        <v>100.185212310365</v>
+        <v>80.45786684223407</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223411</v>
+        <v>80.45786684223407</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746712</v>
+        <v>317.3880320746716</v>
       </c>
       <c r="K11" t="n">
-        <v>723.223450194705</v>
+        <v>723.2234501947046</v>
       </c>
       <c r="L11" t="n">
         <v>1263.599934653016</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458668</v>
+        <v>1896.542330458669</v>
       </c>
       <c r="N11" t="n">
         <v>2544.340204328192</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990714</v>
+        <v>3142.702105990712</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608862</v>
+        <v>3618.88914460886</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718605</v>
+        <v>3928.313032718603</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111706</v>
+        <v>4022.893342111703</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.765696676232</v>
+        <v>3925.76569667623</v>
       </c>
       <c r="T11" t="n">
-        <v>3722.316578060843</v>
+        <v>3722.316578060841</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.832312715612</v>
+        <v>3468.83231271561</v>
       </c>
       <c r="V11" t="n">
-        <v>3468.832312715612</v>
+        <v>3137.76942537204</v>
       </c>
       <c r="W11" t="n">
-        <v>3116.063657445497</v>
+        <v>2785.000770101925</v>
       </c>
       <c r="X11" t="n">
-        <v>2742.597899184418</v>
+        <v>2411.535011840846</v>
       </c>
       <c r="Y11" t="n">
-        <v>2352.458567208606</v>
+        <v>2021.395679865034</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727435</v>
+        <v>88.82407519727434</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223411</v>
+        <v>80.45786684223407</v>
       </c>
       <c r="J12" t="n">
-        <v>202.7540031635563</v>
+        <v>202.7540031635561</v>
       </c>
       <c r="K12" t="n">
-        <v>489.9324039036202</v>
+        <v>489.93240390362</v>
       </c>
       <c r="L12" t="n">
-        <v>783.5716560468526</v>
+        <v>922.4017448696457</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.599846865465</v>
+        <v>1446.429935688258</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.906149516245</v>
+        <v>1998.736238339038</v>
       </c>
       <c r="O12" t="n">
-        <v>2342.938719448448</v>
+        <v>2481.76880827124</v>
       </c>
       <c r="P12" t="n">
-        <v>2342.938719448448</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2539.247168151212</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
         <v>2557.913016602452</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>503.198868087581</v>
+        <v>951.2909762661079</v>
       </c>
       <c r="C13" t="n">
-        <v>377.4644537524802</v>
+        <v>782.354793338201</v>
       </c>
       <c r="D13" t="n">
-        <v>227.3478143401445</v>
+        <v>632.2381539258653</v>
       </c>
       <c r="E13" t="n">
-        <v>227.3478143401445</v>
+        <v>484.3250603434722</v>
       </c>
       <c r="F13" t="n">
-        <v>80.45786684223411</v>
+        <v>337.4351128455618</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223411</v>
+        <v>169.9913866528135</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223411</v>
+        <v>169.9913866528135</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223411</v>
+        <v>80.45786684223407</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283905</v>
+        <v>143.5350566283904</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076824</v>
+        <v>377.0270927076822</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977134</v>
+        <v>731.3429449977132</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583785</v>
+        <v>1115.308455583784</v>
       </c>
       <c r="N13" t="n">
         <v>1495.578740955086</v>
@@ -5224,25 +5224,25 @@
         <v>2193.0011931677</v>
       </c>
       <c r="S13" t="n">
-        <v>2005.830897168755</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="T13" t="n">
-        <v>1785.171389950012</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.082656371976</v>
+        <v>1903.912459589663</v>
       </c>
       <c r="V13" t="n">
-        <v>1241.398168166089</v>
+        <v>1649.227971383776</v>
       </c>
       <c r="W13" t="n">
-        <v>951.9809981291285</v>
+        <v>1359.810801346815</v>
       </c>
       <c r="X13" t="n">
-        <v>723.9914472311111</v>
+        <v>1131.821250448798</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.198868087581</v>
+        <v>1131.821250448798</v>
       </c>
     </row>
     <row r="14">
@@ -5261,7 +5261,7 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5276,22 +5276,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
         <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
         <v>4150.91518802128</v>
@@ -5306,7 +5306,7 @@
         <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
         <v>4151.260941820542</v>
@@ -5355,28 +5355,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>106.3138404733492</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K15" t="n">
-        <v>106.3138404733492</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733492</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254767</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>850.9945487488451</v>
+        <v>956.5125670724608</v>
       </c>
       <c r="C16" t="n">
-        <v>682.0583658209382</v>
+        <v>787.5763841445539</v>
       </c>
       <c r="D16" t="n">
-        <v>531.9417264086023</v>
+        <v>637.459744732218</v>
       </c>
       <c r="E16" t="n">
-        <v>489.5466511498252</v>
+        <v>489.546651149825</v>
       </c>
       <c r="F16" t="n">
         <v>342.6567036519148</v>
@@ -5434,19 +5434,19 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="U16" t="n">
-        <v>2025.52680186348</v>
+        <v>2131.044820187095</v>
       </c>
       <c r="V16" t="n">
-        <v>1770.842313657593</v>
+        <v>1876.360331981208</v>
       </c>
       <c r="W16" t="n">
-        <v>1481.425143620632</v>
+        <v>1586.943161944248</v>
       </c>
       <c r="X16" t="n">
-        <v>1253.435592722615</v>
+        <v>1358.953611046231</v>
       </c>
       <c r="Y16" t="n">
-        <v>1032.643013579085</v>
+        <v>1138.1610319027</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I17" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128751</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
         <v>4514.497374127288</v>
@@ -5540,25 +5540,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100994</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L18" t="n">
-        <v>583.5439560698318</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1175.562310321959</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.658273721295</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2344.534748721489</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.534748721489</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
         <v>2552.77562977024</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>494.0589900220733</v>
+        <v>1034.164739009915</v>
       </c>
       <c r="C19" t="n">
-        <v>494.0589900220733</v>
+        <v>865.228556082008</v>
       </c>
       <c r="D19" t="n">
-        <v>494.0589900220733</v>
+        <v>715.1119166696722</v>
       </c>
       <c r="E19" t="n">
-        <v>494.0589900220733</v>
+        <v>567.1988230872792</v>
       </c>
       <c r="F19" t="n">
-        <v>347.1690425241629</v>
+        <v>420.3088755893689</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213791</v>
@@ -5689,34 +5689,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.3462391076</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821981</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136708</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930821</v>
+        <v>1954.012503918663</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.48958489386</v>
+        <v>1664.595333881702</v>
       </c>
       <c r="X19" t="n">
-        <v>896.5000339958432</v>
+        <v>1436.605782983685</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.707454852313</v>
+        <v>1215.813203840155</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965433</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
         <v>1589.996253358682</v>
@@ -5738,64 +5738,64 @@
         <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2220959708307</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251925</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128742</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.60923933393</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070874</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750192</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469742</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206858</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5823,16 +5823,16 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779263</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412851</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L21" t="n">
         <v>1061.700680385036</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.918335063571</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="C22" t="n">
-        <v>392.9821521356641</v>
+        <v>506.7712719244061</v>
       </c>
       <c r="D22" t="n">
-        <v>317.3152257880633</v>
+        <v>506.7712719244062</v>
       </c>
       <c r="E22" t="n">
-        <v>317.3152257880633</v>
+        <v>358.8581783420132</v>
       </c>
       <c r="F22" t="n">
-        <v>317.3152257880633</v>
+        <v>211.9682308441029</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
         <v>1238.413883213791</v>
@@ -5926,34 +5926,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149097</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178206</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.766099972319</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.348929935358</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3593790373409</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.5667998938108</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="23">
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380899</v>
+        <v>571.6607764187997</v>
       </c>
       <c r="C25" t="n">
-        <v>572.906968710183</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038351</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.15024091081</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.28419561186</v>
+        <v>974.1018203925696</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683297</v>
+        <v>753.3092412490395</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>741.8431516380892</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>572.9069687101824</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578601</v>
+        <v>422.7903292978465</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>127.987288217543</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>127.987288217543</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>127.987288217543</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>923.491616468329</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,25 +6473,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057243</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778174</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654816</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830886</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797736</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6649,22 +6649,22 @@
         <v>2379.917379832662</v>
       </c>
       <c r="T31" t="n">
-        <v>2165.878320670274</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U31" t="n">
-        <v>1876.803094014472</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C34" t="n">
-        <v>344.917417812164</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D34" t="n">
-        <v>344.917417812164</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.917417812164</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703106</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.853600740066</v>
+        <v>741.8431516380915</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121591</v>
+        <v>572.9069687101846</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121591</v>
+        <v>422.7903292978488</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121591</v>
+        <v>274.8772357154555</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003836</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138359</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703057</v>
+        <v>923.4916164683312</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>408.9258559154851</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7712573992578</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.9786782557277</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311991</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032922</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270445</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614388</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614388</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.48513033188149</v>
+        <v>34.48513033188141</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21.32864171282008</v>
       </c>
       <c r="K6" t="n">
-        <v>231.4059294486676</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241567</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.163531076900762</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>258.7188993398546</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201344965</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>1.107008741074281</v>
       </c>
       <c r="C13" t="n">
-        <v>42.76975090687779</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247362</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628534</v>
+        <v>77.39811087628539</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613729095</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.4628381403794</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>240.3470468171209</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>50.29152613729161</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613729146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>54.18219756401928</v>
+        <v>63.57833957387422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729121</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>50.29152613729235</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>73.70521593408752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>47.57701133532424</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>125.5559695740474</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194125</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>55.2110282563294</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>47.4369174006894</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>5.506781756524078</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>10.85445046951781</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600932</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.12601365260967</v>
+        <v>131.6952193743915</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>32.15184655856257</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>66.30572490086932</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>61.40075786968306</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>917595.5874321448</v>
+        <v>917595.5874321447</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>827908.028853502</v>
+        <v>827908.0288535018</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>890267.076381982</v>
+        <v>890267.0763819822</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391545</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
@@ -26320,40 +26320,40 @@
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797094</v>
+        <v>484893.3234797092</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647202</v>
+        <v>521741.85156472</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647202</v>
+        <v>521741.85156472</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647199</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132571.3256199671</v>
+        <v>132571.3256199675</v>
       </c>
       <c r="D3" t="n">
-        <v>265633.5342698672</v>
+        <v>265633.5342698665</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979655</v>
+        <v>348407.0423979651</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046378</v>
+        <v>143852.0300046385</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744888</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30823.28075181878</v>
+        <v>30823.28075181902</v>
       </c>
       <c r="L3" t="n">
-        <v>65071.59368054882</v>
+        <v>65071.59368054846</v>
       </c>
       <c r="M3" t="n">
         <v>90993.97560824321</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282941</v>
+        <v>37822.10612282951</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210643.2314324326</v>
+        <v>210643.2314324324</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8030.786674106926</v>
+        <v>8030.786674106925</v>
       </c>
       <c r="F4" t="n">
         <v>8110.779805506622</v>
       </c>
       <c r="G4" t="n">
-        <v>8110.779805506647</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="H4" t="n">
         <v>8110.779805506622</v>
@@ -26442,16 +26442,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731936</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72576.91021638172</v>
+        <v>72576.91021638177</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635167006</v>
+        <v>88006.19635167001</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-456212.5007819065</v>
+        <v>-456212.5007819067</v>
       </c>
       <c r="C6" t="n">
-        <v>117885.6831430027</v>
+        <v>117885.6831430024</v>
       </c>
       <c r="D6" t="n">
-        <v>40787.84344020839</v>
+        <v>40787.84344020908</v>
       </c>
       <c r="E6" t="n">
-        <v>40449.29805596689</v>
+        <v>40261.66795238228</v>
       </c>
       <c r="F6" t="n">
-        <v>269636.9132407373</v>
+        <v>269591.0082451709</v>
       </c>
       <c r="G6" t="n">
-        <v>413488.9432453751</v>
+        <v>413443.0382498095</v>
       </c>
       <c r="H6" t="n">
-        <v>413488.9432453751</v>
+        <v>413443.0382498094</v>
       </c>
       <c r="I6" t="n">
-        <v>404586.534090416</v>
+        <v>404551.7961649804</v>
       </c>
       <c r="J6" t="n">
-        <v>346406.2931287508</v>
+        <v>346371.5552033149</v>
       </c>
       <c r="K6" t="n">
-        <v>384582.1667960461</v>
+        <v>384547.4288706098</v>
       </c>
       <c r="L6" t="n">
-        <v>350333.853867316</v>
+        <v>350299.1159418807</v>
       </c>
       <c r="M6" t="n">
-        <v>324411.4719396217</v>
+        <v>324376.7340141861</v>
       </c>
       <c r="N6" t="n">
-        <v>377583.3414250356</v>
+        <v>377548.6034995997</v>
       </c>
       <c r="O6" t="n">
-        <v>415405.447547865</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.7096224293</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.1508385363634</v>
+        <v>717.1508385363637</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053768</v>
+        <v>1232.028328053767</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26753,7 +26753,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.4773344784374</v>
+        <v>383.4773344784381</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1005.723335527926</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.0958247668852</v>
+        <v>103.0958247668854</v>
       </c>
       <c r="D3" t="n">
-        <v>216.9140535811758</v>
+        <v>216.9140535811754</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362284</v>
+        <v>297.9634359362281</v>
       </c>
       <c r="F3" t="n">
-        <v>126.012720662618</v>
+        <v>126.0127206626187</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.7634544769313</v>
+        <v>119.7634544769319</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.1074976216006</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278875</v>
+        <v>365.138503427887</v>
       </c>
       <c r="F4" t="n">
-        <v>154.42195479808</v>
+        <v>154.4219547980807</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.763454476931</v>
+        <v>119.7634544769319</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216018</v>
+        <v>257.1074976216004</v>
       </c>
       <c r="M4" t="n">
         <v>365.1385034278873</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980803</v>
+        <v>154.4219547980807</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769313</v>
+        <v>119.7634544769319</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.1074976216006</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278875</v>
+        <v>365.138503427887</v>
       </c>
       <c r="N4" t="n">
-        <v>154.42195479808</v>
+        <v>154.4219547980807</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067075</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.57920276037737</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>37.83288614875794</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>81.12821187166725</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>60.0244601269269</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>118.0208284239201</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.39871126327404</v>
+        <v>32.98322863049873</v>
       </c>
       <c r="G5" t="n">
-        <v>297.5530834024099</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>309.9490894518052</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.32832091644343</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3232867394216</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4754363151146</v>
+        <v>210.4754363151145</v>
       </c>
       <c r="U5" t="n">
         <v>251.1150114321263</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.2185056755067</v>
+        <v>60.70210027231153</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,16 +27701,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33765040199577</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>29.74505253984543</v>
       </c>
       <c r="E7" t="n">
-        <v>79.63895892468055</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7292459486107</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.559737650565</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1453906001063</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484899297496</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>243.5396556423833</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>43.67336544387503</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.85095794181409</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.73743432537392e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>9.079157179156836e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.499637934770061e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.742195080722396e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.543759046481525e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.765288083215043e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.763796740535804e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-5.854872142663226e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883018446377338</v>
+        <v>2.883018446377339</v>
       </c>
       <c r="H5" t="n">
-        <v>29.52571266396192</v>
+        <v>29.52571266396194</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1475686539624</v>
+        <v>111.1475686539625</v>
       </c>
       <c r="J5" t="n">
-        <v>244.6925868632188</v>
+        <v>244.6925868632189</v>
       </c>
       <c r="K5" t="n">
-        <v>366.7307576983716</v>
+        <v>366.7307576983718</v>
       </c>
       <c r="L5" t="n">
-        <v>454.9619334766921</v>
+        <v>454.9619334766924</v>
       </c>
       <c r="M5" t="n">
-        <v>506.2328127724551</v>
+        <v>506.2328127724554</v>
       </c>
       <c r="N5" t="n">
-        <v>514.4241889332247</v>
+        <v>514.4241889332251</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7561742570601</v>
+        <v>485.7561742570603</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5816563621195</v>
+        <v>414.5816563621197</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.333558251231</v>
+        <v>311.3335582512311</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1004074822506</v>
+        <v>181.1004074822507</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69678284682365</v>
+        <v>65.69678284682369</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6204132490168</v>
+        <v>12.62041324901681</v>
       </c>
       <c r="U5" t="n">
-        <v>0.230641475710187</v>
+        <v>0.2306414757101871</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542550860248027</v>
+        <v>1.542550860248028</v>
       </c>
       <c r="H6" t="n">
-        <v>14.89779383450068</v>
+        <v>14.89779383450069</v>
       </c>
       <c r="I6" t="n">
-        <v>53.10975549538163</v>
+        <v>53.10975549538166</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7372284236963</v>
+        <v>145.7372284236964</v>
       </c>
       <c r="K6" t="n">
-        <v>249.0881360603141</v>
+        <v>249.0881360603142</v>
       </c>
       <c r="L6" t="n">
-        <v>334.9297383183271</v>
+        <v>334.9297383183273</v>
       </c>
       <c r="M6" t="n">
-        <v>390.847207002318</v>
+        <v>390.8472070023182</v>
       </c>
       <c r="N6" t="n">
-        <v>401.1917695695077</v>
+        <v>401.1917695695079</v>
       </c>
       <c r="O6" t="n">
-        <v>367.0120899819066</v>
+        <v>367.0120899819068</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5595585678886</v>
+        <v>294.5595585678888</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.905264195871</v>
+        <v>196.9052641958711</v>
       </c>
       <c r="R6" t="n">
-        <v>95.77346481434684</v>
+        <v>95.77346481434688</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65220567171223</v>
+        <v>28.65220567171225</v>
       </c>
       <c r="T6" t="n">
-        <v>6.217562458631299</v>
+        <v>6.217562458631302</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014836092268439</v>
+        <v>0.101483609226844</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293222823590163</v>
+        <v>1.293222823590164</v>
       </c>
       <c r="H7" t="n">
         <v>11.49792655882892</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89073727669329</v>
+        <v>38.89073727669331</v>
       </c>
       <c r="J7" t="n">
-        <v>91.43085362782455</v>
+        <v>91.43085362782459</v>
       </c>
       <c r="K7" t="n">
         <v>150.2489789589299</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2669641544867</v>
+        <v>192.2669641544868</v>
       </c>
       <c r="M7" t="n">
         <v>202.7185558833199</v>
       </c>
       <c r="N7" t="n">
-        <v>197.8983617226658</v>
+        <v>197.8983617226659</v>
       </c>
       <c r="O7" t="n">
-        <v>182.7911678289079</v>
+        <v>182.791167828908</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4094222276684</v>
+        <v>156.4094222276685</v>
       </c>
       <c r="Q7" t="n">
         <v>108.2897766189909</v>
       </c>
       <c r="R7" t="n">
-        <v>58.14800077706315</v>
+        <v>58.14800077706317</v>
       </c>
       <c r="S7" t="n">
-        <v>22.53734684383948</v>
+        <v>22.53734684383949</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52558842806706</v>
+        <v>5.525588428067063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07053942674128172</v>
+        <v>0.07053942674128175</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.95287770071866</v>
+        <v>4.952877700718658</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248499</v>
+        <v>50.72365875248497</v>
       </c>
       <c r="I11" t="n">
         <v>190.9458175569563</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513708</v>
+        <v>420.3693037513706</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227917</v>
+        <v>630.0246168227915</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561607</v>
+        <v>781.6012477561603</v>
       </c>
       <c r="M11" t="n">
-        <v>869.681986566316</v>
+        <v>869.6819865663157</v>
       </c>
       <c r="N11" t="n">
-        <v>883.754350333483</v>
+        <v>883.7543503334826</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969617</v>
+        <v>834.5041726969615</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604698</v>
+        <v>712.2300044604694</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034826</v>
+        <v>534.8550718034824</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677688</v>
+        <v>311.1212038677687</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051266</v>
+        <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489595</v>
+        <v>21.68122213489594</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574927</v>
+        <v>0.3962302160574926</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191123</v>
+        <v>2.650023196191122</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900374</v>
+        <v>25.59364507900373</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851016</v>
+        <v>91.23983372851013</v>
       </c>
       <c r="J12" t="n">
-        <v>250.369077496285</v>
+        <v>250.3690774962849</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410903</v>
+        <v>427.9206316410901</v>
       </c>
       <c r="L12" t="n">
-        <v>435.1596849750584</v>
+        <v>575.3920979273749</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893032</v>
+        <v>671.455438789303</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760413</v>
+        <v>689.2268662760409</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446484</v>
+        <v>630.5079312446481</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>210.8877491630295</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120458</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>164.5338963389542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837455</v>
+        <v>49.22301857837454</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605106</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
         <v>0.1743436313283634</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637941</v>
+        <v>2.22169042763794</v>
       </c>
       <c r="H13" t="n">
         <v>19.75284762027189</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478466</v>
+        <v>66.81229031478463</v>
       </c>
       <c r="J13" t="n">
         <v>157.0735132340024</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201171</v>
+        <v>258.120033320117</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326446</v>
+        <v>330.3047750326444</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731251002</v>
+        <v>348.2600731251</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857227</v>
+        <v>339.9792269857226</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537703</v>
+        <v>314.0258433537701</v>
       </c>
       <c r="P13" t="n">
-        <v>268.703358629956</v>
+        <v>268.7033586299559</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361189</v>
+        <v>186.0362775361188</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088414</v>
+        <v>99.8952805008841</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801756</v>
+        <v>38.71800499801755</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725747</v>
+        <v>9.492677281725744</v>
       </c>
       <c r="U13" t="n">
         <v>0.1211831142347969</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>140.476229946736</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660256</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745724</v>
@@ -32327,13 +32327,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.3260983776887</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -32473,25 +32473,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830429</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293306</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
         <v>342.9428985987162</v>
@@ -32503,7 +32503,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
         <v>28.2113810308819</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848223</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
         <v>422.3544583169088</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862159</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
         <v>11.77395965821092</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
         <v>364.0885788640618</v>
@@ -32640,13 +32640,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
         <v>205.0641983561742</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.64668233653254</v>
+        <v>63.64668233653265</v>
       </c>
       <c r="K5" t="n">
-        <v>146.6409066533911</v>
+        <v>146.6409066533913</v>
       </c>
       <c r="L5" t="n">
-        <v>219.1955185067049</v>
+        <v>219.1955185067051</v>
       </c>
       <c r="M5" t="n">
-        <v>275.8865795451824</v>
+        <v>275.8865795451826</v>
       </c>
       <c r="N5" t="n">
-        <v>285.0111253366338</v>
+        <v>285.0111253366342</v>
       </c>
       <c r="O5" t="n">
-        <v>255.6579628353734</v>
+        <v>255.6579628353736</v>
       </c>
       <c r="P5" t="n">
-        <v>183.3486606068499</v>
+        <v>183.3486606068502</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.02786837678147</v>
+        <v>89.02786837678164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.89960175702959</v>
+        <v>40.22824346984975</v>
       </c>
       <c r="K6" t="n">
-        <v>342.6526265346226</v>
+        <v>111.2466970859552</v>
       </c>
       <c r="L6" t="n">
-        <v>196.3753585384529</v>
+        <v>196.3753585384531</v>
       </c>
       <c r="M6" t="n">
-        <v>248.7131730802997</v>
+        <v>248.7131730802998</v>
       </c>
       <c r="N6" t="n">
-        <v>269.8500574861744</v>
+        <v>269.8500574861746</v>
       </c>
       <c r="O6" t="n">
-        <v>224.4158455374622</v>
+        <v>224.4158455374624</v>
       </c>
       <c r="P6" t="n">
-        <v>160.5851511535583</v>
+        <v>160.5851511535585</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.92349010984944</v>
+        <v>267.0007778456986</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.979487133047</v>
+        <v>127.9794871330471</v>
       </c>
       <c r="L7" t="n">
-        <v>219.8569894148028</v>
+        <v>219.8569894148029</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3024328451604</v>
+        <v>242.3024328451605</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0305341018943</v>
+        <v>242.0305341018945</v>
       </c>
       <c r="O7" t="n">
-        <v>207.3762957429475</v>
+        <v>207.3762957429476</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6879814925619</v>
+        <v>153.687981492562</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.12773336729649</v>
+        <v>22.12773336729653</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676415</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246845</v>
+        <v>239.3233992246843</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778112</v>
+        <v>409.9347657778109</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861734</v>
+        <v>545.8348327861731</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390433</v>
+        <v>639.335753339043</v>
       </c>
       <c r="N11" t="n">
-        <v>654.341286736892</v>
+        <v>654.3412867368918</v>
       </c>
       <c r="O11" t="n">
-        <v>604.405961275275</v>
+        <v>604.4059612752748</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087052002</v>
+        <v>480.9970087051999</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290331</v>
+        <v>312.5493819290328</v>
       </c>
       <c r="R11" t="n">
-        <v>95.5356660536367</v>
+        <v>95.53566605363659</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>123.5314508296183</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667313</v>
+        <v>290.0791926667311</v>
       </c>
       <c r="L12" t="n">
-        <v>296.6053051951842</v>
+        <v>436.8377181475008</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672849</v>
+        <v>529.3214048672846</v>
       </c>
       <c r="N12" t="n">
-        <v>557.885154192708</v>
+        <v>557.8851541927077</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002039</v>
+        <v>487.9116868002037</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>76.91334174869921</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.2913623260243</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.8543923749902</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732966</v>
+        <v>63.7143331173296</v>
       </c>
       <c r="K13" t="n">
         <v>235.8505414942342</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929607</v>
+        <v>357.8948002929606</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869408</v>
+        <v>387.8439500869406</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649512</v>
+        <v>384.1113993649511</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678099</v>
+        <v>338.6109712678098</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948495</v>
+        <v>265.9819178948494</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442453</v>
+        <v>99.87423428442445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.63860328006933</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946982</v>
@@ -35975,13 +35975,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.3443242916671</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664388</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020579</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263696</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134826</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104633</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
         <v>279.7582138724644</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
         <v>370.7297545606359</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096358</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295386</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096367</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066191</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
